--- a/data/158/COJ/old/s14n_en.xlsx
+++ b/data/158/COJ/old/s14n_en.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="90" windowWidth="15450" windowHeight="9290"/>
+    <workbookView xWindow="4650" yWindow="90" windowWidth="15450" windowHeight="9285"/>
   </bookViews>
   <sheets>
     <sheet name="Current" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Current!$A:$A</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -749,33 +749,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr transitionEvaluation="1"/>
-  <dimension ref="A1:AA92"/>
+  <dimension ref="A1:AB92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="17.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.7109375" customWidth="1"/>
-    <col min="2" max="168" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="60.69921875" customWidth="1"/>
+    <col min="2" max="169" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
       <c r="X2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -788,7 +788,7 @@
       <c r="H4" s="4"/>
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="14"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -815,9 +815,10 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
-      <c r="AA5" s="6"/>
-    </row>
-    <row r="6" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="6"/>
+    </row>
+    <row r="6" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>3</v>
       </c>
@@ -896,11 +897,14 @@
       <c r="Z6" s="23">
         <v>2018</v>
       </c>
-      <c r="AA6" s="24">
+      <c r="AA6" s="23">
         <v>2019</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AB6" s="24">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="16"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -927,9 +931,10 @@
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
-      <c r="AA7" s="7"/>
-    </row>
-    <row r="8" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="7"/>
+    </row>
+    <row r="8" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
         <v>4</v>
       </c>
@@ -1006,13 +1011,16 @@
         <v>138308.9</v>
       </c>
       <c r="Z8" s="11">
-        <v>140098.70000000001</v>
-      </c>
-      <c r="AA8" s="25">
-        <v>142434.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>140301.29999999999</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>142822.20000000001</v>
+      </c>
+      <c r="AB8" s="25">
+        <v>136497.70000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>5</v>
       </c>
@@ -1089,13 +1097,16 @@
         <v>22128.7</v>
       </c>
       <c r="Z9" s="11">
-        <v>21049.5</v>
-      </c>
-      <c r="AA9" s="26">
-        <v>22043.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>21050.2</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>22091.200000000001</v>
+      </c>
+      <c r="AB9" s="26">
+        <v>20585.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>6</v>
       </c>
@@ -1172,13 +1183,16 @@
         <v>42027.1</v>
       </c>
       <c r="Z10" s="11">
-        <v>43063.199999999997</v>
-      </c>
-      <c r="AA10" s="26">
-        <v>43856.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>43062.9</v>
+      </c>
+      <c r="AA10" s="11">
+        <v>44145.2</v>
+      </c>
+      <c r="AB10" s="26">
+        <v>44723.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
         <v>7</v>
       </c>
@@ -1255,13 +1269,16 @@
         <v>19389.900000000001</v>
       </c>
       <c r="Z11" s="11">
-        <v>20153.099999999999</v>
-      </c>
-      <c r="AA11" s="26">
-        <v>20003.099999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>20152.900000000001</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>19659</v>
+      </c>
+      <c r="AB11" s="26">
+        <v>19114.599999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>8</v>
       </c>
@@ -1338,13 +1355,16 @@
         <v>21582.5</v>
       </c>
       <c r="Z12" s="11">
-        <v>21792.6</v>
-      </c>
-      <c r="AA12" s="26">
-        <v>23002.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>21792.5</v>
+      </c>
+      <c r="AA12" s="11">
+        <v>23623.5</v>
+      </c>
+      <c r="AB12" s="26">
+        <v>24855.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
         <v>31</v>
       </c>
@@ -1423,11 +1443,14 @@
       <c r="Z13" s="11">
         <v>1117.5</v>
       </c>
-      <c r="AA13" s="26">
-        <v>850.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA13" s="11">
+        <v>862.7</v>
+      </c>
+      <c r="AB13" s="26">
+        <v>753.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="18" t="s">
         <v>9</v>
       </c>
@@ -1504,13 +1527,16 @@
         <v>43263.199999999997</v>
       </c>
       <c r="Z14" s="11">
-        <v>44354.8</v>
-      </c>
-      <c r="AA14" s="26">
-        <v>44702.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>44559.4</v>
+      </c>
+      <c r="AA14" s="11">
+        <v>44957.2</v>
+      </c>
+      <c r="AB14" s="26">
+        <v>40516.800000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>15</v>
       </c>
@@ -1587,13 +1613,16 @@
         <v>7863.2</v>
       </c>
       <c r="Z15" s="11">
-        <v>7906.1</v>
-      </c>
-      <c r="AA15" s="26">
-        <v>8110.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>7934.1</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>8059.5</v>
+      </c>
+      <c r="AB15" s="26">
+        <v>6685.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
         <v>10</v>
       </c>
@@ -1670,13 +1699,16 @@
         <v>6657.1</v>
       </c>
       <c r="Z16" s="11">
-        <v>6792.9</v>
-      </c>
-      <c r="AA16" s="26">
-        <v>7437</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>6795.3</v>
+      </c>
+      <c r="AA16" s="11">
+        <v>7220.1</v>
+      </c>
+      <c r="AB16" s="26">
+        <v>7200.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
         <v>11</v>
       </c>
@@ -1753,13 +1785,16 @@
         <v>28742.9</v>
       </c>
       <c r="Z17" s="11">
-        <v>29655.7</v>
-      </c>
-      <c r="AA17" s="26">
-        <v>29155.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>29830</v>
+      </c>
+      <c r="AA17" s="11">
+        <v>29677.599999999999</v>
+      </c>
+      <c r="AB17" s="26">
+        <v>26630.799999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
         <v>12</v>
       </c>
@@ -1838,11 +1873,14 @@
       <c r="Z18" s="11">
         <v>1135.7</v>
       </c>
-      <c r="AA18" s="26">
-        <v>1015.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA18" s="11">
+        <v>1044.0999999999999</v>
+      </c>
+      <c r="AB18" s="26">
+        <v>950.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>13</v>
       </c>
@@ -1919,13 +1957,16 @@
         <v>235.2</v>
       </c>
       <c r="Z19" s="11">
-        <v>249.3</v>
-      </c>
-      <c r="AA19" s="26">
-        <v>235.6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>250.3</v>
+      </c>
+      <c r="AA19" s="11">
+        <v>241.9</v>
+      </c>
+      <c r="AB19" s="26">
+        <v>232.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>14</v>
       </c>
@@ -2002,13 +2043,16 @@
         <v>29739.3</v>
       </c>
       <c r="Z20" s="11">
-        <v>30246.2</v>
-      </c>
-      <c r="AA20" s="26">
-        <v>30581.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>30242.7</v>
+      </c>
+      <c r="AA20" s="11">
+        <v>30342.6</v>
+      </c>
+      <c r="AB20" s="26">
+        <v>29488.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>16</v>
       </c>
@@ -2087,11 +2131,14 @@
       <c r="Z21" s="11">
         <v>19039.400000000001</v>
       </c>
-      <c r="AA21" s="26">
-        <v>18878.400000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA21" s="11">
+        <v>18645.3</v>
+      </c>
+      <c r="AB21" s="26">
+        <v>18306.599999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>17</v>
       </c>
@@ -2170,11 +2217,14 @@
       <c r="Z22" s="11">
         <v>34.5</v>
       </c>
-      <c r="AA22" s="26">
+      <c r="AA22" s="11">
         <v>31.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AB22" s="26">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>18</v>
       </c>
@@ -2251,13 +2301,16 @@
         <v>10502.4</v>
       </c>
       <c r="Z23" s="11">
-        <v>10344.6</v>
-      </c>
-      <c r="AA23" s="26">
-        <v>10809.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>10341.200000000001</v>
+      </c>
+      <c r="AA23" s="11">
+        <v>10815.6</v>
+      </c>
+      <c r="AB23" s="26">
+        <v>10370.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>32</v>
       </c>
@@ -2336,11 +2389,14 @@
       <c r="Z24" s="11">
         <v>827.6</v>
       </c>
-      <c r="AA24" s="26">
-        <v>861.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA24" s="11">
+        <v>850.1</v>
+      </c>
+      <c r="AB24" s="26">
+        <v>786.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>19</v>
       </c>
@@ -2417,13 +2473,16 @@
         <v>1147.5999999999999</v>
       </c>
       <c r="Z25" s="11">
-        <v>2041.9</v>
-      </c>
-      <c r="AA25" s="26">
-        <v>2120.1999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>2082</v>
+      </c>
+      <c r="AA25" s="11">
+        <v>1361.4</v>
+      </c>
+      <c r="AB25" s="26">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
         <v>23</v>
       </c>
@@ -2502,11 +2561,14 @@
       <c r="Z26" s="11">
         <v>326.3</v>
       </c>
-      <c r="AA26" s="26">
-        <v>414.2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA26" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AB26" s="26">
+        <v>626.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>20</v>
       </c>
@@ -2585,11 +2647,14 @@
       <c r="Z27" s="11">
         <v>574.79999999999995</v>
       </c>
-      <c r="AA27" s="26">
-        <v>474.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA27" s="11">
+        <v>273.8</v>
+      </c>
+      <c r="AB27" s="26">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
         <v>29</v>
       </c>
@@ -2668,11 +2733,14 @@
       <c r="Z28" s="11">
         <v>7.3</v>
       </c>
-      <c r="AA28" s="26">
-        <v>33.299999999999997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA28" s="11">
+        <v>29.9</v>
+      </c>
+      <c r="AB28" s="26">
+        <v>-23.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>25</v>
       </c>
@@ -2751,11 +2819,14 @@
       <c r="Z29" s="11">
         <v>567.5</v>
       </c>
-      <c r="AA29" s="26">
-        <v>441.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA29" s="11">
+        <v>243.9</v>
+      </c>
+      <c r="AB29" s="26">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
@@ -2834,11 +2905,14 @@
       <c r="Z30" s="11">
         <v>654.20000000000005</v>
       </c>
-      <c r="AA30" s="26">
-        <v>664.4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA30" s="11">
+        <v>461.3</v>
+      </c>
+      <c r="AB30" s="26">
+        <v>-211.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
         <v>21</v>
       </c>
@@ -2915,13 +2989,16 @@
         <v>135.6</v>
       </c>
       <c r="Z31" s="11">
-        <v>648.29999999999995</v>
-      </c>
-      <c r="AA31" s="26">
-        <v>764.9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>691.6</v>
+      </c>
+      <c r="AA31" s="11">
+        <v>762.1</v>
+      </c>
+      <c r="AB31" s="26">
+        <v>-306.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>22</v>
       </c>
@@ -2998,13 +3075,16 @@
         <v>89.9</v>
       </c>
       <c r="Z32" s="11">
-        <v>161.80000000000001</v>
-      </c>
-      <c r="AA32" s="26">
-        <v>198.1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+        <v>164.9</v>
+      </c>
+      <c r="AA32" s="11">
+        <v>134.9</v>
+      </c>
+      <c r="AB32" s="26">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>26</v>
       </c>
@@ -3033,9 +3113,10 @@
       <c r="X33" s="11"/>
       <c r="Y33" s="11"/>
       <c r="Z33" s="11"/>
-      <c r="AA33" s="26"/>
-    </row>
-    <row r="34" spans="1:27" ht="18" x14ac:dyDescent="0.4">
+      <c r="AA33" s="11"/>
+      <c r="AB33" s="26"/>
+    </row>
+    <row r="34" spans="1:28" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>27</v>
       </c>
@@ -3112,13 +3193,16 @@
         <v>139456.4</v>
       </c>
       <c r="Z34" s="13">
-        <v>142140.6</v>
-      </c>
-      <c r="AA34" s="27">
-        <v>144554.70000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.4">
+        <v>142383.29999999999</v>
+      </c>
+      <c r="AA34" s="13">
+        <v>144183.5</v>
+      </c>
+      <c r="AB34" s="27">
+        <v>136771.70000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>28</v>
       </c>
@@ -3130,177 +3214,234 @@
       <c r="G35" s="1"/>
       <c r="H35"/>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="Z36" s="2"/>
-    </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA36" s="2"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Z37" s="2"/>
-    </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA37" s="2"/>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Z38" s="2"/>
-    </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA38" s="2"/>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Z39" s="2"/>
-    </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA39" s="2"/>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Z40" s="2"/>
-    </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA40" s="2"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Z41" s="2"/>
-    </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA41" s="2"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Z42" s="2"/>
-    </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA42" s="2"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Z43" s="2"/>
-    </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA43" s="2"/>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Z44" s="2"/>
-    </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA44" s="2"/>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Z45" s="2"/>
-    </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA45" s="2"/>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Z46" s="2"/>
-    </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA46" s="2"/>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Z47" s="2"/>
-    </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA47" s="2"/>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
       <c r="Z48" s="2"/>
-    </row>
-    <row r="49" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA48" s="2"/>
+    </row>
+    <row r="49" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z49" s="2"/>
-    </row>
-    <row r="50" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA49" s="2"/>
+    </row>
+    <row r="50" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z50" s="2"/>
-    </row>
-    <row r="51" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA50" s="2"/>
+    </row>
+    <row r="51" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z51" s="2"/>
-    </row>
-    <row r="52" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA51" s="2"/>
+    </row>
+    <row r="52" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z52" s="2"/>
-    </row>
-    <row r="53" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA52" s="2"/>
+    </row>
+    <row r="53" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z53" s="2"/>
-    </row>
-    <row r="54" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA53" s="2"/>
+    </row>
+    <row r="54" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z54" s="2"/>
-    </row>
-    <row r="55" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA54" s="2"/>
+    </row>
+    <row r="55" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z55" s="2"/>
-    </row>
-    <row r="56" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA55" s="2"/>
+    </row>
+    <row r="56" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z56" s="2"/>
-    </row>
-    <row r="57" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA56" s="2"/>
+    </row>
+    <row r="57" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z57" s="2"/>
-    </row>
-    <row r="58" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA57" s="2"/>
+    </row>
+    <row r="58" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z58" s="2"/>
-    </row>
-    <row r="59" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA58" s="2"/>
+    </row>
+    <row r="59" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z59" s="2"/>
-    </row>
-    <row r="60" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA59" s="2"/>
+    </row>
+    <row r="60" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z60" s="2"/>
-    </row>
-    <row r="61" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA60" s="2"/>
+    </row>
+    <row r="61" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z61" s="2"/>
-    </row>
-    <row r="62" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA61" s="2"/>
+    </row>
+    <row r="62" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z62" s="2"/>
-    </row>
-    <row r="63" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA62" s="2"/>
+    </row>
+    <row r="63" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z63" s="2"/>
-    </row>
-    <row r="64" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA63" s="2"/>
+    </row>
+    <row r="64" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z64" s="2"/>
-    </row>
-    <row r="65" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA64" s="2"/>
+    </row>
+    <row r="65" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z65" s="2"/>
-    </row>
-    <row r="66" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA65" s="2"/>
+    </row>
+    <row r="66" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z66" s="2"/>
-    </row>
-    <row r="67" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA66" s="2"/>
+    </row>
+    <row r="67" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z67" s="2"/>
-    </row>
-    <row r="68" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA67" s="2"/>
+    </row>
+    <row r="68" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z68" s="2"/>
-    </row>
-    <row r="69" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA68" s="2"/>
+    </row>
+    <row r="69" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z69" s="2"/>
-    </row>
-    <row r="70" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA69" s="2"/>
+    </row>
+    <row r="70" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z70" s="2"/>
-    </row>
-    <row r="71" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA70" s="2"/>
+    </row>
+    <row r="71" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z71" s="2"/>
-    </row>
-    <row r="72" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA71" s="2"/>
+    </row>
+    <row r="72" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z72" s="2"/>
-    </row>
-    <row r="73" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA72" s="2"/>
+    </row>
+    <row r="73" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z73" s="2"/>
-    </row>
-    <row r="74" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA73" s="2"/>
+    </row>
+    <row r="74" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z74" s="2"/>
-    </row>
-    <row r="75" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA74" s="2"/>
+    </row>
+    <row r="75" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z75" s="2"/>
-    </row>
-    <row r="76" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA75" s="2"/>
+    </row>
+    <row r="76" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z76" s="2"/>
-    </row>
-    <row r="77" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA76" s="2"/>
+    </row>
+    <row r="77" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z77" s="2"/>
-    </row>
-    <row r="78" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA77" s="2"/>
+    </row>
+    <row r="78" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z78" s="2"/>
-    </row>
-    <row r="79" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA78" s="2"/>
+    </row>
+    <row r="79" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z79" s="2"/>
-    </row>
-    <row r="80" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA79" s="2"/>
+    </row>
+    <row r="80" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z80" s="2"/>
-    </row>
-    <row r="81" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA80" s="2"/>
+    </row>
+    <row r="81" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z81" s="2"/>
-    </row>
-    <row r="82" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA81" s="2"/>
+    </row>
+    <row r="82" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z82" s="2"/>
-    </row>
-    <row r="83" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA82" s="2"/>
+    </row>
+    <row r="83" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z83" s="2"/>
-    </row>
-    <row r="84" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA83" s="2"/>
+    </row>
+    <row r="84" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z84" s="2"/>
-    </row>
-    <row r="85" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA84" s="2"/>
+    </row>
+    <row r="85" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z85" s="2"/>
-    </row>
-    <row r="86" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA85" s="2"/>
+    </row>
+    <row r="86" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z86" s="2"/>
-    </row>
-    <row r="87" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA86" s="2"/>
+    </row>
+    <row r="87" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z87" s="2"/>
-    </row>
-    <row r="88" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA87" s="2"/>
+    </row>
+    <row r="88" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z88" s="2"/>
-    </row>
-    <row r="89" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA88" s="2"/>
+    </row>
+    <row r="89" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z89" s="2"/>
-    </row>
-    <row r="90" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA89" s="2"/>
+    </row>
+    <row r="90" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z90" s="2"/>
-    </row>
-    <row r="91" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA90" s="2"/>
+    </row>
+    <row r="91" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z91" s="2"/>
-    </row>
-    <row r="92" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="AA91" s="2"/>
+    </row>
+    <row r="92" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z92" s="2"/>
+      <c r="AA92" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
